--- a/biology/Botanique/Citrus_crassifolia/Citrus_crassifolia.xlsx
+++ b/biology/Botanique/Citrus_crassifolia/Citrus_crassifolia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Citrus crassifolia, le kumquat Meiwa, est une espèce de kumquat[2], un type d'agrume du genre Citrus, famille des Rutacées . Elle a été décrite pour la première fois par le botaniste américain Walter Tennyson Swingle en 1915 sous le nom de Fortunella crassifolia[1].
-Initialement, C. crassifolia a été décrit comme synonyme de Citrus japonica[3]. Cependant, une analyse phylogénétique récente suggère que C. crassifolia est une seule « vraie » espèce[2],[1],[4].
-C. crassifolia a été importée de Chine au Japon à la fin du 19e siècle. C'est un hybride de Nagami et Marumi. Il a des fruits ovales et des feuilles épaisses et a été caractérisé comme une espèce différente par Swingle[1]. Son fruit est généralement consommé avec la peau[5].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Citrus crassifolia, le kumquat Meiwa, est une espèce de kumquat, un type d'agrume du genre Citrus, famille des Rutacées . Elle a été décrite pour la première fois par le botaniste américain Walter Tennyson Swingle en 1915 sous le nom de Fortunella crassifolia.
+Initialement, C. crassifolia a été décrit comme synonyme de Citrus japonica. Cependant, une analyse phylogénétique récente suggère que C. crassifolia est une seule « vraie » espèce.
+C. crassifolia a été importée de Chine au Japon à la fin du 19e siècle. C'est un hybride de Nagami et Marumi. Il a des fruits ovales et des feuilles épaisses et a été caractérisé comme une espèce différente par Swingle. Son fruit est généralement consommé avec la peau.
 </t>
         </is>
       </c>
